--- a/R codes/ejemplo variables COL2017.xlsx
+++ b/R codes/ejemplo variables COL2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xmancero\Documents\Stata\IPM 2020\do MES 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CEPAL\SAE-IPM\R codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1CD754-1B17-4026-B006-D4F5A6B6B599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F4F38-B80E-4CF1-86C9-F17F0C6B24BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B2E14C8B-9342-4BCC-9B2E-45F03E63BA7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2E14C8B-9342-4BCC-9B2E-45F03E63BA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="basevariables" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -837,32 +837,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E1DA7-E057-4F5D-BD05-F0AEDD16B551}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="8.88671875" style="14"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="15.54296875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="3"/>
+    <col min="3" max="3" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="3"/>
+    <col min="6" max="6" width="8.90625" style="14"/>
+    <col min="7" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>0</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>0</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -934,7 +934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
         <v>39</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
         <v>39</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
         <v>42</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
         <v>42</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
         <v>42</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
         <v>42</v>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="5" t="s">
         <v>42</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="5" t="s">
         <v>42</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
         <v>42</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="5" t="s">
         <v>42</v>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
         <v>42</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
         <v>42</v>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
         <v>42</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="5" t="s">
         <v>42</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="5" t="s">
         <v>42</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="5" t="s">
         <v>42</v>
@@ -1224,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="5" t="s">
         <v>39</v>
@@ -1242,10 +1242,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
@@ -1405,12 +1405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>53</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>53</v>
       </c>
@@ -1452,12 +1452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -1472,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>11</v>
@@ -1502,12 +1502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="1" t="s">
         <v>16</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="1" t="s">
         <v>16</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
       <c r="B56" s="1" t="s">
         <v>16</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>16</v>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="1" t="s">
         <v>16</v>
@@ -1582,12 +1582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="1" t="s">
         <v>22</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="1" t="s">
         <v>22</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
       <c r="B63" s="1" t="s">
         <v>22</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="B64" s="1" t="s">
         <v>22</v>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="1" t="s">
         <v>22</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>56</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
         <v>57</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>57</v>
       </c>
@@ -1707,12 +1707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
         <v>58</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
         <v>58</v>
       </c>
@@ -1754,12 +1754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
         <v>62</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>62</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B80" s="3" t="s">
         <v>62</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>62</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" s="3" t="s">
         <v>62</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84" s="3" t="s">
         <v>62</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
         <v>62</v>
       </c>
@@ -1893,125 +1893,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B054D87A-EBFE-4E19-BB7C-F390B37252A5}">
   <dimension ref="A2:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A63" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="94.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="94.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>100</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>102</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>104</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>106</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>108</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>110</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F33"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>112</v>
       </c>
@@ -2074,17 +2074,17 @@
       </c>
       <c r="F34"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>115</v>
       </c>
@@ -2092,107 +2092,107 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>90</v>
       </c>
